--- a/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Daniel.xlsx
+++ b/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD83681A-1CFA-4EFA-8E33-16B86344E4A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF4ADC8-778A-47D7-988E-F159165C5310}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,13 +446,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,22 +467,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1657,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63:E72"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,10 +1676,10 @@
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -1711,11 +1711,11 @@
       <c r="C5" s="9">
         <v>0.75</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="21">
         <f>SUM(C5:C8)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1729,8 +1729,8 @@
       <c r="C6" s="9">
         <v>0.25</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1742,8 +1742,8 @@
       <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -1755,8 +1755,8 @@
       <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -1768,11 +1768,11 @@
       <c r="C9" s="12">
         <v>0.5</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="29">
         <f>SUM(C9:C21)</f>
         <v>16.5</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1786,8 +1786,8 @@
       <c r="C10" s="12">
         <v>0.5</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -1799,8 +1799,8 @@
       <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -1812,8 +1812,8 @@
       <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -1825,8 +1825,8 @@
       <c r="C13" s="12">
         <v>0.5</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -1838,8 +1838,8 @@
       <c r="C14" s="12">
         <v>1.5</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -1851,8 +1851,8 @@
       <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -1864,8 +1864,8 @@
       <c r="C16" s="12">
         <v>0.25</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -1877,8 +1877,8 @@
       <c r="C17" s="12">
         <v>1.5</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -1890,8 +1890,8 @@
       <c r="C18" s="12">
         <v>0.25</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -1903,8 +1903,8 @@
       <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
@@ -1916,8 +1916,8 @@
       <c r="C20" s="12">
         <v>4.5</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -1929,8 +1929,8 @@
       <c r="C21" s="12">
         <v>2</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
@@ -1942,11 +1942,11 @@
       <c r="C22" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="21">
         <f>SUM(C22:C25)</f>
         <v>4.75</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="22">
         <v>3</v>
       </c>
     </row>
@@ -1960,8 +1960,8 @@
       <c r="C23" s="9">
         <v>0.25</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -1973,8 +1973,8 @@
       <c r="C24" s="9">
         <v>1</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
@@ -1986,8 +1986,8 @@
       <c r="C25" s="9">
         <v>0.5</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
@@ -1999,11 +1999,11 @@
       <c r="C26" s="12">
         <v>1</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="29">
         <f>SUM(C26:C28)</f>
         <v>2.5</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2017,8 +2017,8 @@
       <c r="C27" s="12">
         <v>0.5</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -2030,8 +2030,8 @@
       <c r="C28" s="12">
         <v>1</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
@@ -2043,11 +2043,11 @@
       <c r="C29" s="9">
         <v>3</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="21">
         <f>SUM(C29:C33)</f>
         <v>7.25</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="22">
         <v>5</v>
       </c>
     </row>
@@ -2061,8 +2061,8 @@
       <c r="C30" s="9">
         <v>1.75</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -2074,8 +2074,8 @@
       <c r="C31" s="9">
         <v>1.5</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -2087,8 +2087,8 @@
       <c r="C32" s="9">
         <v>0.5</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
@@ -2100,8 +2100,8 @@
       <c r="C33" s="9">
         <v>0.5</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -2113,11 +2113,11 @@
       <c r="C34" s="12">
         <v>0.25</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="29">
         <f>SUM(C34:C36)</f>
         <v>3.25</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="18">
         <v>6</v>
       </c>
     </row>
@@ -2131,8 +2131,8 @@
       <c r="C35" s="12">
         <v>1.5</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -2144,8 +2144,8 @@
       <c r="C36" s="12">
         <v>1.5</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -2175,11 +2175,11 @@
       <c r="C38" s="12">
         <v>0.5</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="29">
         <f>SUM(C38:C47)</f>
         <v>10.5</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="18">
         <v>8</v>
       </c>
     </row>
@@ -2193,8 +2193,8 @@
       <c r="C39" s="12">
         <v>2</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -2206,8 +2206,8 @@
       <c r="C40" s="12">
         <v>2</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -2219,8 +2219,8 @@
       <c r="C41" s="12">
         <v>0.5</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -2232,8 +2232,8 @@
       <c r="C42" s="12">
         <v>1</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -2245,8 +2245,8 @@
       <c r="C43" s="12">
         <v>1</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
@@ -2258,8 +2258,8 @@
       <c r="C44" s="12">
         <v>0.25</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
@@ -2271,8 +2271,8 @@
       <c r="C45" s="12">
         <v>1.5</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
@@ -2284,8 +2284,8 @@
       <c r="C46" s="12">
         <v>1.5</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
@@ -2297,8 +2297,8 @@
       <c r="C47" s="12">
         <v>0.25</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
@@ -2328,11 +2328,11 @@
       <c r="C49" s="12">
         <v>1.5</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="29">
         <f>SUM(C49:C51)</f>
         <v>4</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="18">
         <v>10</v>
       </c>
     </row>
@@ -2346,8 +2346,8 @@
       <c r="C50" s="12">
         <v>0.5</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
@@ -2359,8 +2359,8 @@
       <c r="C51" s="12">
         <v>2</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
@@ -2372,11 +2372,11 @@
       <c r="C52" s="9">
         <v>3.75</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="21">
         <f>SUM(C52:C56)</f>
         <v>12.75</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="22">
         <v>11</v>
       </c>
     </row>
@@ -2390,8 +2390,8 @@
       <c r="C53" s="9">
         <v>3</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="22"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
@@ -2403,8 +2403,8 @@
       <c r="C54" s="9">
         <v>0.5</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="22"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
@@ -2416,8 +2416,8 @@
       <c r="C55" s="9">
         <v>4</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="22"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
@@ -2429,8 +2429,8 @@
       <c r="C56" s="9">
         <v>1.5</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
@@ -2442,11 +2442,11 @@
       <c r="C57" s="12">
         <v>2.25</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="29">
         <f>SUM(C57:C62)</f>
         <v>15.5</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="18">
         <v>12</v>
       </c>
     </row>
@@ -2460,8 +2460,8 @@
       <c r="C58" s="12">
         <v>1.5</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
@@ -2473,8 +2473,8 @@
       <c r="C59" s="12">
         <v>2</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
@@ -2486,8 +2486,8 @@
       <c r="C60" s="12">
         <v>2</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
@@ -2499,8 +2499,8 @@
       <c r="C61" s="12">
         <v>5</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
@@ -2512,8 +2512,8 @@
       <c r="C62" s="12">
         <v>2.75</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
@@ -2525,11 +2525,11 @@
       <c r="C63" s="9">
         <v>1.5</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="25">
         <f>SUM(C63:C72)</f>
         <v>24</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="22">
         <v>13</v>
       </c>
     </row>
@@ -2543,8 +2543,8 @@
       <c r="C64" s="9">
         <v>1.5</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="22"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="23"/>
     </row>
     <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
@@ -2556,8 +2556,8 @@
       <c r="C65" s="9">
         <v>1</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="22"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="23"/>
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
@@ -2569,8 +2569,8 @@
       <c r="C66" s="9">
         <v>1.25</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="22"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="23"/>
     </row>
     <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
@@ -2582,8 +2582,8 @@
       <c r="C67" s="9">
         <v>1.5</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="22"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="23"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
@@ -2595,8 +2595,8 @@
       <c r="C68" s="9">
         <v>1.5</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="22"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
@@ -2608,8 +2608,8 @@
       <c r="C69" s="9">
         <v>3.5</v>
       </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="22"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
@@ -2621,8 +2621,8 @@
       <c r="C70" s="9">
         <v>1.25</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="22"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
@@ -2634,8 +2634,8 @@
       <c r="C71" s="9">
         <v>7</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="22"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="23"/>
     </row>
     <row r="72" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
@@ -2647,8 +2647,8 @@
       <c r="C72" s="9">
         <v>4</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="23"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
@@ -2661,13 +2661,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E38:E47"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E52:E56"/>
     <mergeCell ref="D63:D72"/>
     <mergeCell ref="E63:E72"/>
     <mergeCell ref="A2:B2"/>
@@ -2684,9 +2677,27 @@
     <mergeCell ref="E9:E21"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E52:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L
+________________________________________
+&amp;C
+________________________________________
+&amp;RJournal de travail - Daniel Gonzalez Lopez
+________________________________________
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;C&amp;K09-024&amp;P
+</oddFooter>
+  </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="D5" formulaRange="1"/>
   </ignoredErrors>
